--- a/network/distance_above_34_meters.xlsx
+++ b/network/distance_above_34_meters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,162 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>도장3_IO</t>
+          <t>도장3공장_IO</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>대조립1_OUT</t>
+          <t>뉴판넬PE장쉘터</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>선각_OUT</t>
+          <t>대조립부속1동쉘터</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>선각공장_OUT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>대조립1공장_OUT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>도장3_IO</t>
+          <t>도장3공장_IO</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99999999999</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>대조립1_OUT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>99999999999</v>
-      </c>
+          <t>뉴판넬PE장쉘터</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>119.5456114272073</v>
+        <v>93.01635210260316</v>
+      </c>
+      <c r="E3" t="n">
+        <v>113.2876725574155</v>
+      </c>
+      <c r="F3" t="n">
+        <v>143.7665838742845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>222.9940754841184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>선각_OUT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>99999999999</v>
-      </c>
+          <t>대조립부속1동쉘터</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>119.5456114272073</v>
+        <v>93.01635210260316</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20.27132045481231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50.75023177168137</v>
+      </c>
+      <c r="G4" t="n">
+        <v>129.9777233815152</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>선각공장_OUT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>113.2876725574155</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.27132045481231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.47891131686906</v>
+      </c>
+      <c r="G5" t="n">
+        <v>109.7064029267029</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>143.7665838742845</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.75023177168137</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30.47891131686906</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>79.22749160983385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>대조립1공장_OUT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>222.9940754841184</v>
+      </c>
+      <c r="D7" t="n">
+        <v>129.9777233815152</v>
+      </c>
+      <c r="E7" t="n">
+        <v>109.7064029267029</v>
+      </c>
+      <c r="F7" t="n">
+        <v>79.22749160983385</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
